--- a/src/main/resources/data/accounts.xlsx
+++ b/src/main/resources/data/accounts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="88">
   <si>
     <t xml:space="preserve">code agence</t>
   </si>
@@ -76,10 +76,10 @@
     <t xml:space="preserve">XAF</t>
   </si>
   <si>
-    <t xml:space="preserve">T</t>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">SOMEKONG  KUETE BLAISE</t>
+    <t xml:space="preserve">NGOUANA SEGNOU  NELSON </t>
   </si>
   <si>
     <t xml:space="preserve">EMERGENCE</t>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">Client</t>
   </si>
   <si>
-    <t xml:space="preserve">04005818-37227T</t>
+    <t xml:space="preserve">04005820-37227Y</t>
   </si>
   <si>
     <t xml:space="preserve">2024-01-01</t>
@@ -98,15 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">01000865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGOUANA SEGNOU  NELSON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">04005820-37227Y</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
@@ -140,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">01000990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
   </si>
   <si>
     <t xml:space="preserve">SONWA DJIMELI KEVINE </t>
@@ -208,22 +202,13 @@
     <t xml:space="preserve">04005857-37227Z</t>
   </si>
   <si>
-    <t xml:space="preserve">ZEMO GUY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04005860-37227K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01018307</t>
-  </si>
-  <si>
     <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve">SONKOUE TATANG LUCEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent</t>
   </si>
   <si>
     <t xml:space="preserve">04005861-37227R</t>
@@ -278,6 +263,27 @@
   </si>
   <si>
     <t xml:space="preserve">04005887-37227I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSOPNA AUPHIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04005818-37227T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01018307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04005892-37227T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04005851-37227U</t>
   </si>
 </sst>
 </file>
@@ -545,8 +551,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -649,10 +655,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>320</v>
+        <v>115519</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>25</v>
@@ -696,13 +702,13 @@
         <v>24</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>115519</v>
+        <v>12850</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,10 +722,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>37227400</v>
@@ -734,7 +740,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>23</v>
@@ -743,13 +749,13 @@
         <v>24</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1200</v>
+        <v>23000</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>12850</v>
+        <v>15664</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,13 +796,13 @@
         <v>24</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23000</v>
+        <v>4500</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>15664</v>
+        <v>1000</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,10 +816,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>37227400</v>
@@ -828,7 +834,7 @@
         <v>21</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>23</v>
@@ -837,13 +843,13 @@
         <v>24</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4500</v>
+        <v>240</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -857,10 +863,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>37227400</v>
@@ -875,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>23</v>
@@ -884,13 +890,13 @@
         <v>24</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>240</v>
+        <v>50200</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>196772</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,10 +910,10 @@
         <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>37227400</v>
@@ -922,7 +928,7 @@
         <v>21</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>23</v>
@@ -931,13 +937,13 @@
         <v>24</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50200</v>
+        <v>500</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>196772</v>
+        <v>0</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,10 +957,10 @@
         <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>37227400</v>
@@ -963,13 +969,13 @@
         <v>20</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3333</v>
+        <v>4444</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>23</v>
@@ -978,13 +984,13 @@
         <v>24</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,10 +1004,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>37227400</v>
@@ -1013,10 +1019,10 @@
         <v>4444</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>23</v>
@@ -1028,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>6250</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,10 +1051,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>37227400</v>
@@ -1060,10 +1066,10 @@
         <v>4444</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>23</v>
@@ -1075,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6250</v>
+        <v>552000</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,10 +1098,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>37227400</v>
@@ -1107,10 +1113,10 @@
         <v>4444</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>23</v>
@@ -1122,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>552000</v>
+        <v>70950</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,10 +1145,10 @@
         <v>17</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>37227400</v>
@@ -1151,13 +1157,13 @@
         <v>20</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>4444</v>
+        <v>2222</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>23</v>
@@ -1166,13 +1172,13 @@
         <v>24</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>70950</v>
+        <v>400</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,10 +1192,10 @@
         <v>17</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>37227400</v>
@@ -1201,10 +1207,10 @@
         <v>2222</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>23</v>
@@ -1216,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>5280</v>
+        <v>330</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,10 +1239,10 @@
         <v>17</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>37227400</v>
@@ -1245,13 +1251,13 @@
         <v>20</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>23</v>
@@ -1260,13 +1266,13 @@
         <v>24</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1000</v>
+        <v>2578</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>400</v>
+        <v>12860</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,10 +1286,10 @@
         <v>17</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>37227400</v>
@@ -1292,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>23</v>
@@ -1307,13 +1313,13 @@
         <v>24</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>330</v>
+        <v>254000</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,25 +1333,25 @@
         <v>17</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37227400</v>
+        <v>37227300</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H17" s="6" t="n">
         <v>1111</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>23</v>
@@ -1354,13 +1360,13 @@
         <v>24</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2578</v>
+        <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>12860</v>
+        <v>11040</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,10 +1380,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>37227400</v>
@@ -1389,10 +1395,10 @@
         <v>1111</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>23</v>
@@ -1401,13 +1407,13 @@
         <v>24</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15400</v>
+        <v>0</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>254000</v>
+        <v>54500</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,25 +1427,25 @@
         <v>17</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37227300</v>
+        <v>37227400</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1111</v>
+        <v>3333</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>23</v>
@@ -1448,13 +1454,13 @@
         <v>24</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>11040</v>
+        <v>320</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,22 +1474,22 @@
         <v>17</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>37227400</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1111</v>
+        <v>4444</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>85</v>
@@ -1495,36 +1501,115 @@
         <v>24</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>54500</v>
+        <v>500</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>82</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>37227400</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>2222</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>15600</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>545</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="5"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="4"/>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="4"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
       <c r="D113" s="5"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="4"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="4"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5"/>
@@ -1591,36 +1676,38 @@
       <c r="N117" s="4"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="5"/>
+      <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="6"/>
+      <c r="G118" s="5"/>
       <c r="H118" s="6"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="7"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="5"/>
       <c r="K118" s="7"/>
-      <c r="L118" s="5"/>
+      <c r="L118" s="7"/>
       <c r="M118" s="5"/>
-      <c r="N118" s="4"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="4"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="5"/>
+      <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="6"/>
+      <c r="G119" s="5"/>
       <c r="H119" s="6"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="7"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="5"/>
       <c r="K119" s="7"/>
-      <c r="L119" s="5"/>
+      <c r="L119" s="7"/>
       <c r="M119" s="5"/>
-      <c r="N119" s="4"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="4"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4"/>
@@ -16939,7 +17026,23 @@
       <c r="N1020" s="5"/>
       <c r="O1020" s="4"/>
     </row>
-    <row r="1021" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1021" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="4"/>
+      <c r="B1021" s="5"/>
+      <c r="C1021" s="5"/>
+      <c r="D1021" s="5"/>
+      <c r="E1021" s="5"/>
+      <c r="F1021" s="5"/>
+      <c r="G1021" s="5"/>
+      <c r="H1021" s="6"/>
+      <c r="I1021" s="6"/>
+      <c r="J1021" s="5"/>
+      <c r="K1021" s="7"/>
+      <c r="L1021" s="7"/>
+      <c r="M1021" s="5"/>
+      <c r="N1021" s="5"/>
+      <c r="O1021" s="4"/>
+    </row>
     <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1023" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -24627,9 +24730,8 @@
     <row r="8706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8711" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8709" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
